--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="630" yWindow="510" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <t>type</t>
   </si>
@@ -219,12 +219,6 @@
     <t>visit_registration</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Visit Registration</t>
-  </si>
-  <si>
     <t>barcode</t>
   </si>
   <si>
@@ -276,9 +270,6 @@
     <t>../farmhouse = '1' and (${locationId} !=${locationcalculated})</t>
   </si>
   <si>
-    <t>${locationId} !=${locationcalculated} and ${locationId} !=${locationIdCheck}</t>
-  </si>
-  <si>
     <t>reasonnotin</t>
   </si>
   <si>
@@ -313,13 +304,118 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>label::Portuguese</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Id da visita</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>ExtId da Casa/Agregado</t>
+  </si>
+  <si>
+    <t>locationName</t>
+  </si>
+  <si>
+    <t>location Name</t>
+  </si>
+  <si>
+    <t>Location Name</t>
+  </si>
+  <si>
+    <t>Número da Casa/Agregado</t>
+  </si>
+  <si>
+    <t>Número da ronda</t>
+  </si>
+  <si>
+    <t>Verificar</t>
+  </si>
+  <si>
+    <t>O código de barras não coincide com o ExtId da casa, tem certeza que deseja prosseguir?</t>
+  </si>
+  <si>
+    <t>Porque o código de barras não corresponde?</t>
+  </si>
+  <si>
+    <t>Data da visita</t>
+  </si>
+  <si>
+    <t>Id do Respondente</t>
+  </si>
+  <si>
+    <t>É a pessoa seleccionada, a mesma que está sendo entrevista?</t>
+  </si>
+  <si>
+    <t>Nome do/a respondente</t>
+  </si>
+  <si>
+    <t>Razão para ser entrevistado</t>
+  </si>
+  <si>
+    <t>Onde é que a visita esta sendo realizada?</t>
+  </si>
+  <si>
+    <t>Gravar Coordenadas GPS:</t>
+  </si>
+  <si>
+    <t>1=0</t>
+  </si>
+  <si>
+    <t>1=0 and (${locationId} !=${locationcalculated} and ${locationId} !=${locationIdCheck})</t>
+  </si>
+  <si>
+    <t>Nao</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Em casa</t>
+  </si>
+  <si>
+    <t>Nova casa</t>
+  </si>
+  <si>
+    <t>Nao esta em casa</t>
+  </si>
+  <si>
+    <t>Sem codigo de barras na casa</t>
+  </si>
+  <si>
+    <t>Codigo de barras nao é legivel</t>
+  </si>
+  <si>
+    <t>Ocorreu uma migração</t>
+  </si>
+  <si>
+    <t>Vizinhos foram entrevistados</t>
+  </si>
+  <si>
+    <t>Outra</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat("Visita_",${visitId},"-", format-date(${visitDate},"%Y%n%e"))</t>
+  </si>
+  <si>
+    <t>Registo de Visita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1467,33 +1563,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="23.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="5"/>
-    <col min="11" max="11" width="19.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="5"/>
+    <col min="3" max="3" width="39.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="5"/>
+    <col min="12" max="12" width="19.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="34.125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1501,59 +1598,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1565,15 +1665,16 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1585,15 +1686,16 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1605,8 +1707,9 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1614,28 +1717,31 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4" t="b">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1643,19 +1749,22 @@
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="J6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="b">
+      <c r="N6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1663,296 +1772,358 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="J7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="b">
+      <c r="N7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="4" t="b">
+        <v>102</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="4" t="b">
+      <c r="N8" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="M10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="L11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="28.5" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="24">
+      <c r="A13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="K10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="4" t="b">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="4" t="b">
+      <c r="N15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="4" t="b">
+    </row>
+    <row r="16" spans="1:18" ht="24">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="4" t="b">
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M13" s="4" t="b">
+      <c r="M17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19" s="4" t="b">
+      <c r="H19" s="2"/>
+      <c r="J19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" s="4" t="b">
+    </row>
+    <row r="20" spans="1:14" ht="24">
+      <c r="A20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="J20" s="4"/>
+      <c r="M20" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="7"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="7"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1960,8 +2131,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1969,36 +2141,40 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H26" s="2"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="2"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2006,8 +2182,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2015,8 +2192,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2024,8 +2202,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2033,9 +2212,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2043,9 +2222,10 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="2"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2053,9 +2233,10 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="2"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2063,8 +2244,10 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H35" s="2"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2072,64 +2255,75 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="3"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="3"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="3"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="3"/>
+    </row>
+    <row r="58" spans="10:10">
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="10:10">
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="10:10">
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" s="3"/>
+    </row>
+    <row r="79" spans="10:10">
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="10:10">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="3"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I86" s="3"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I88" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="J87" s="3"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="J89" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2138,23 +2332,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="13.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="5"/>
+    <col min="3" max="3" width="22.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2162,13 +2357,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
@@ -2176,13 +2374,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
@@ -2190,13 +2391,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
@@ -2204,13 +2408,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>40</v>
       </c>
@@ -2218,436 +2425,457 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="13">
         <v>0</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" s="13">
         <v>2</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="13">
         <v>99</v>
       </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" s="15" customFormat="1">
       <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="15"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="15"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="15"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="15"/>
       <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="15"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="15"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="15"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="15"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="15"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="15"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="15"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="15"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="15"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="15"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="15"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="15"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
       <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="15"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
       <c r="D61" s="14"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="15"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
       <c r="D62" s="14"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="15"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="15"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="15"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="15"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="15"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
       <c r="D67" s="14"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="15"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
       <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2656,21 +2884,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2680,16 +2909,22 @@
       <c r="C1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="510" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="930" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="162">
   <si>
     <t>type</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Record the GPS coordinates:</t>
   </si>
   <si>
-    <t>../correctInterviewee = '0'</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>concat(substr(${locationIdCheck},0,3),'0000',substr(${locationIdCheck},3,5))</t>
   </si>
   <si>
-    <t>../farmhouse = '1' and (${locationId} !=${locationcalculated})</t>
-  </si>
-  <si>
     <t>reasonnotin</t>
   </si>
   <si>
@@ -282,9 +276,6 @@
     <t>select_one reasonnotin</t>
   </si>
   <si>
-    <t>Neighbor interviewed</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -381,9 +372,6 @@
     <t>Em casa</t>
   </si>
   <si>
-    <t>Nova casa</t>
-  </si>
-  <si>
     <t>Nao esta em casa</t>
   </si>
   <si>
@@ -393,12 +381,6 @@
     <t>Codigo de barras nao é legivel</t>
   </si>
   <si>
-    <t>Ocorreu uma migração</t>
-  </si>
-  <si>
-    <t>Vizinhos foram entrevistados</t>
-  </si>
-  <si>
     <t>Outra</t>
   </si>
   <si>
@@ -409,6 +391,117 @@
   </si>
   <si>
     <t>Registo de Visita</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Localização do número do agregado?</t>
+  </si>
+  <si>
+    <t>A casa precisa ser repintada?</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>select_one houseno_locations</t>
+  </si>
+  <si>
+    <t>houseno_locations</t>
+  </si>
+  <si>
+    <t>houseNoLocated</t>
+  </si>
+  <si>
+    <t>houseNoNeedRepaint</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Porta</t>
+  </si>
+  <si>
+    <t>Parede</t>
+  </si>
+  <si>
+    <t>Árvore</t>
+  </si>
+  <si>
+    <t>Porta de quintal</t>
+  </si>
+  <si>
+    <t>Outro Local</t>
+  </si>
+  <si>
+    <t>Ronda</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Registo de eventos</t>
+  </si>
+  <si>
+    <t>Actualização de imunização</t>
+  </si>
+  <si>
+    <t>../correctInterviewee = '2'</t>
+  </si>
+  <si>
+    <t>Inquérito completo?</t>
+  </si>
+  <si>
+    <t>completedQuest</t>
+  </si>
+  <si>
+    <t>Motivo de não ter completado o inquérito?</t>
+  </si>
+  <si>
+    <t>reasonToNotComplete</t>
+  </si>
+  <si>
+    <t>select_one reason_to_not_complete</t>
+  </si>
+  <si>
+    <t>${completedQuest}=2</t>
+  </si>
+  <si>
+    <t>reason_to_not_complete</t>
+  </si>
+  <si>
+    <t>Casa destruída</t>
+  </si>
+  <si>
+    <t>Casa desabitada</t>
+  </si>
+  <si>
+    <t>Sem informante</t>
+  </si>
+  <si>
+    <t>Outro motivo</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>Recusa.</t>
+  </si>
+  <si>
+    <t>Casa não encontrada</t>
+  </si>
+  <si>
+    <t>${completedQuest}!=2</t>
+  </si>
+  <si>
+    <t>../farmhouse = '1' and (${locationId} !=${locationcalculated}) and ${completedQuest}!=2</t>
+  </si>
+  <si>
+    <t>processedBySync</t>
+  </si>
+  <si>
+    <t>processed by dbsync</t>
   </si>
 </sst>
 </file>
@@ -837,7 +930,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -857,9 +950,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1564,13 +1654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
@@ -1598,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -1717,7 +1807,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -1749,7 +1839,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>25</v>
@@ -1772,7 +1862,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>27</v>
@@ -1792,16 +1882,16 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J8" s="4" t="b">
         <v>1</v>
@@ -1812,19 +1902,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J9" s="4" t="b">
         <v>1</v>
@@ -1835,13 +1925,13 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>27</v>
@@ -1851,7 +1941,7 @@
       </c>
       <c r="J10" s="4"/>
       <c r="M10" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -1860,23 +1950,23 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="4"/>
       <c r="L11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N11" s="4" t="b">
         <v>1</v>
@@ -1884,43 +1974,43 @@
     </row>
     <row r="12" spans="1:18" ht="28.5" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="J12" s="4" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:18" ht="24">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N13" s="4"/>
     </row>
@@ -1932,7 +2022,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>30</v>
@@ -1955,7 +2045,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>25</v>
@@ -1978,7 +2068,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>34</v>
@@ -1998,7 +2088,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>36</v>
@@ -2010,18 +2100,18 @@
         <v>1</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>37</v>
@@ -2032,134 +2122,198 @@
       <c r="J18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="24">
+      <c r="A20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="J19" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="24">
-      <c r="A20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="J20" s="4"/>
-      <c r="M20" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N21" s="4" t="b">
-        <v>1</v>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="J21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
+      <c r="J22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="J23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="36">
+      <c r="A24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
+      <c r="J24" s="4"/>
+      <c r="M24" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="A25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="J26" s="3"/>
+      <c r="A26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="2"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2167,9 +2321,9 @@
     <row r="28" spans="1:14">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2193,13 +2347,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2207,9 +2362,9 @@
     <row r="32" spans="1:14">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2223,7 +2378,6 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2"/>
@@ -2234,7 +2388,6 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2"/>
@@ -2245,7 +2398,6 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2"/>
@@ -2268,62 +2420,105 @@
       <c r="H37" s="2"/>
       <c r="J37" s="3"/>
     </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
     <row r="41" spans="1:10">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10">
-      <c r="J42" s="3"/>
-    </row>
-    <row r="50" spans="10:10">
-      <c r="J50" s="3"/>
-    </row>
-    <row r="58" spans="10:10">
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="10:10">
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="10:10">
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="10:10">
-      <c r="J61" s="3"/>
+    <row r="45" spans="1:10">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="J46" s="3"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="3"/>
     </row>
     <row r="62" spans="10:10">
       <c r="J62" s="3"/>
     </row>
-    <row r="79" spans="10:10">
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="10:10">
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="J82" s="3"/>
+    <row r="63" spans="10:10">
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" s="3"/>
     </row>
     <row r="83" spans="1:10">
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="3"/>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="3"/>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="3"/>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10">
       <c r="J87" s="3"/>
     </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
     <row r="89" spans="1:10">
+      <c r="A89" s="3"/>
       <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="J91" s="3"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="J93" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2336,12 +2531,12 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A19" sqref="A19:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20" style="5" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="5" customWidth="1"/>
@@ -2357,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -2367,515 +2562,641 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="D4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="12">
+        <v>99</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="E12" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="C13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="12">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="12">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="12">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="12">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="12">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="12">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="12">
         <v>88</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="C24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="12">
         <v>99</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="C25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" s="15" customFormat="1">
-      <c r="B43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" s="14" customFormat="1">
+      <c r="B43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="15"/>
-      <c r="B44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="15"/>
-      <c r="B45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="15"/>
-      <c r="B46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="15"/>
-      <c r="B47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="15"/>
-      <c r="B48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="15"/>
-      <c r="B49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="15"/>
-      <c r="B50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="12"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="15"/>
-      <c r="B51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="15"/>
-      <c r="B52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="15"/>
-      <c r="B53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="15"/>
-      <c r="B54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="12"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="15"/>
-      <c r="B55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="15"/>
-      <c r="B56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="15"/>
-      <c r="B57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="15"/>
-      <c r="B58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="15"/>
-      <c r="B59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="12"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="15"/>
-      <c r="B60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="15"/>
-      <c r="B61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="15"/>
-      <c r="B62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="15"/>
-      <c r="B63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="12"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="15"/>
-      <c r="B64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="15"/>
-      <c r="B65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="12"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="15"/>
-      <c r="B66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="12"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="15"/>
-      <c r="B67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="15"/>
-      <c r="B68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2901,30 +3222,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13125" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="8445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -375,10 +375,10 @@
     <t>1. Número de agregado do 1º Vizinho</t>
   </si>
   <si>
-    <t>Preencha com o formato XXXX-XXX</t>
-  </si>
-  <si>
-    <t>(regex(., '^[0-9]{4}-[0-9]{3}$'))</t>
+    <t>Preencha com o formato XXXX-XXX ou XXXX-XXXX</t>
+  </si>
+  <si>
+    <t>(regex(., '^[0-9]{4}-(([0-9]{3})|([0-9]{4}))$'))</t>
   </si>
   <si>
     <t>O formato do numero de agregado deve ser XXXX-XXX</t>
@@ -611,8 +611,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -667,11 +667,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,52 +687,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,7 +707,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,7 +722,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,7 +751,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,6 +767,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,15 +804,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,13 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,19 +862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +892,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,31 +940,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,37 +964,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,25 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,17 +1032,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,7 +1045,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,21 +1076,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,6 +1097,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1111,166 +1129,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1730,21 +1730,21 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8733333333333" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="24.8" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="70.3" style="4" customWidth="1"/>
+    <col min="3" max="3" width="49.6" style="4" customWidth="1"/>
     <col min="4" max="4" width="35.3733333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="29.8733333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.9" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.7" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.9" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.4" style="4" customWidth="1"/>
     <col min="9" max="9" width="34.5" style="4" customWidth="1"/>
@@ -2331,7 +2331,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" s="15" customFormat="1" ht="24" spans="1:14">
+    <row r="24" s="15" customFormat="1" spans="1:14">
       <c r="A24" s="20" t="s">
         <v>106</v>
       </c>
